--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F7-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.40958134744916</v>
+        <v>1.435388</v>
       </c>
       <c r="H2">
-        <v>1.40958134744916</v>
+        <v>4.306164</v>
       </c>
       <c r="I2">
-        <v>0.09503703128650802</v>
+        <v>0.09096710168874859</v>
       </c>
       <c r="J2">
-        <v>0.09503703128650802</v>
+        <v>0.09096710168874858</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>39.827414041327</v>
+        <v>0.1663096666666667</v>
       </c>
       <c r="N2">
-        <v>39.827414041327</v>
+        <v>0.498929</v>
       </c>
       <c r="O2">
-        <v>0.7149778935854304</v>
+        <v>0.002911546828163527</v>
       </c>
       <c r="P2">
-        <v>0.7149778935854304</v>
+        <v>0.002911546828163527</v>
       </c>
       <c r="Q2">
-        <v>56.13997994978931</v>
+        <v>0.2387188998173333</v>
       </c>
       <c r="R2">
-        <v>56.13997994978931</v>
+        <v>2.148470098356</v>
       </c>
       <c r="S2">
-        <v>0.06794937644184015</v>
+        <v>0.000264854976389105</v>
       </c>
       <c r="T2">
-        <v>0.06794937644184015</v>
+        <v>0.000264854976389105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.40958134744916</v>
+        <v>1.435388</v>
       </c>
       <c r="H3">
-        <v>1.40958134744916</v>
+        <v>4.306164</v>
       </c>
       <c r="I3">
-        <v>0.09503703128650802</v>
+        <v>0.09096710168874859</v>
       </c>
       <c r="J3">
-        <v>0.09503703128650802</v>
+        <v>0.09096710168874858</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6130718893687</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N3">
-        <v>14.6130718893687</v>
+        <v>119.714039</v>
       </c>
       <c r="O3">
-        <v>0.2623324564188848</v>
+        <v>0.6986024675597023</v>
       </c>
       <c r="P3">
-        <v>0.2623324564188848</v>
+        <v>0.6986024675597023</v>
       </c>
       <c r="Q3">
-        <v>20.59831356418777</v>
+        <v>57.27869833737732</v>
       </c>
       <c r="R3">
-        <v>20.59831356418777</v>
+        <v>515.5082850363959</v>
       </c>
       <c r="S3">
-        <v>0.02493129786814806</v>
+        <v>0.06354984170651413</v>
       </c>
       <c r="T3">
-        <v>0.02493129786814806</v>
+        <v>0.06354984170651412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.40958134744916</v>
+        <v>1.435388</v>
       </c>
       <c r="H4">
-        <v>1.40958134744916</v>
+        <v>4.306164</v>
       </c>
       <c r="I4">
-        <v>0.09503703128650802</v>
+        <v>0.09096710168874859</v>
       </c>
       <c r="J4">
-        <v>0.09503703128650802</v>
+        <v>0.09096710168874858</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.26391332226967</v>
+        <v>0.27049</v>
       </c>
       <c r="N4">
-        <v>1.26391332226967</v>
+        <v>0.8114699999999999</v>
       </c>
       <c r="O4">
-        <v>0.02268964999568479</v>
+        <v>0.004735409055496588</v>
       </c>
       <c r="P4">
-        <v>0.02268964999568479</v>
+        <v>0.004735409055496588</v>
       </c>
       <c r="Q4">
-        <v>1.781588643863826</v>
+        <v>0.3882581001199999</v>
       </c>
       <c r="R4">
-        <v>1.781588643863826</v>
+        <v>3.494322901079999</v>
       </c>
       <c r="S4">
-        <v>0.002156356976519812</v>
+        <v>0.000430766437089179</v>
       </c>
       <c r="T4">
-        <v>0.002156356976519812</v>
+        <v>0.0004307664370891789</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -720,60 +720,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.46155131743858</v>
+        <v>1.435388</v>
       </c>
       <c r="H5">
-        <v>3.46155131743858</v>
+        <v>4.306164</v>
       </c>
       <c r="I5">
-        <v>0.2333852965993002</v>
+        <v>0.09096710168874859</v>
       </c>
       <c r="J5">
-        <v>0.2333852965993002</v>
+        <v>0.09096710168874858</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>39.827414041327</v>
+        <v>0.4939066666666667</v>
       </c>
       <c r="N5">
-        <v>39.827414041327</v>
+        <v>1.48172</v>
       </c>
       <c r="O5">
-        <v>0.7149778935854304</v>
+        <v>0.00864671559726226</v>
       </c>
       <c r="P5">
-        <v>0.7149778935854304</v>
+        <v>0.00864671559726226</v>
       </c>
       <c r="Q5">
-        <v>137.8646375449273</v>
+        <v>0.7089477024533334</v>
       </c>
       <c r="R5">
-        <v>137.8646375449273</v>
+        <v>6.38052932208</v>
       </c>
       <c r="S5">
-        <v>0.1668653277563786</v>
+        <v>0.0007865666570098445</v>
       </c>
       <c r="T5">
-        <v>0.1668653277563786</v>
+        <v>0.0007865666570098444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,57 +785,57 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.46155131743858</v>
+        <v>1.435388</v>
       </c>
       <c r="H6">
-        <v>3.46155131743858</v>
+        <v>4.306164</v>
       </c>
       <c r="I6">
-        <v>0.2333852965993002</v>
+        <v>0.09096710168874859</v>
       </c>
       <c r="J6">
-        <v>0.2333852965993002</v>
+        <v>0.09096710168874858</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.6130718893687</v>
+        <v>14.88291266666667</v>
       </c>
       <c r="N6">
-        <v>14.6130718893687</v>
+        <v>44.648738</v>
       </c>
       <c r="O6">
-        <v>0.2623324564188848</v>
+        <v>0.2605518851487974</v>
       </c>
       <c r="P6">
-        <v>0.2623324564188848</v>
+        <v>0.2605518851487974</v>
       </c>
       <c r="Q6">
-        <v>50.5838982504689</v>
+        <v>21.36275424678133</v>
       </c>
       <c r="R6">
-        <v>50.5838982504689</v>
+        <v>192.264788221032</v>
       </c>
       <c r="S6">
-        <v>0.06122453814894441</v>
+        <v>0.0237016498315258</v>
       </c>
       <c r="T6">
-        <v>0.06122453814894441</v>
+        <v>0.02370164983152579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,57 +847,57 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.46155131743858</v>
+        <v>1.435388</v>
       </c>
       <c r="H7">
-        <v>3.46155131743858</v>
+        <v>4.306164</v>
       </c>
       <c r="I7">
-        <v>0.2333852965993002</v>
+        <v>0.09096710168874859</v>
       </c>
       <c r="J7">
-        <v>0.2333852965993002</v>
+        <v>0.09096710168874858</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.26391332226967</v>
+        <v>1.402426666666667</v>
       </c>
       <c r="N7">
-        <v>1.26391332226967</v>
+        <v>4.20728</v>
       </c>
       <c r="O7">
-        <v>0.02268964999568479</v>
+        <v>0.02455197581057795</v>
       </c>
       <c r="P7">
-        <v>0.02268964999568479</v>
+        <v>0.02455197581057795</v>
       </c>
       <c r="Q7">
-        <v>4.375100825830748</v>
+        <v>2.013026408213333</v>
       </c>
       <c r="R7">
-        <v>4.375100825830748</v>
+        <v>18.11723767392</v>
       </c>
       <c r="S7">
-        <v>0.005295430693977205</v>
+        <v>0.00223342208022054</v>
       </c>
       <c r="T7">
-        <v>0.005295430693977205</v>
+        <v>0.00223342208022054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -906,60 +906,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.45654243990308</v>
+        <v>3.999259333333333</v>
       </c>
       <c r="H8">
-        <v>2.45654243990308</v>
+        <v>11.997778</v>
       </c>
       <c r="I8">
-        <v>0.1656254185969385</v>
+        <v>0.2534513528432802</v>
       </c>
       <c r="J8">
-        <v>0.1656254185969385</v>
+        <v>0.2534513528432801</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>39.827414041327</v>
+        <v>0.1663096666666667</v>
       </c>
       <c r="N8">
-        <v>39.827414041327</v>
+        <v>0.498929</v>
       </c>
       <c r="O8">
-        <v>0.7149778935854304</v>
+        <v>0.002911546828163527</v>
       </c>
       <c r="P8">
-        <v>0.7149778935854304</v>
+        <v>0.002911546828163527</v>
       </c>
       <c r="Q8">
-        <v>97.83773286411163</v>
+        <v>0.6651154866402222</v>
       </c>
       <c r="R8">
-        <v>97.83773286411163</v>
+        <v>5.986039379762</v>
       </c>
       <c r="S8">
-        <v>0.1184185129126443</v>
+        <v>0.0007379354824646073</v>
       </c>
       <c r="T8">
-        <v>0.1184185129126443</v>
+        <v>0.0007379354824646072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -968,60 +968,60 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.45654243990308</v>
+        <v>3.999259333333333</v>
       </c>
       <c r="H9">
-        <v>2.45654243990308</v>
+        <v>11.997778</v>
       </c>
       <c r="I9">
-        <v>0.1656254185969385</v>
+        <v>0.2534513528432802</v>
       </c>
       <c r="J9">
-        <v>0.1656254185969385</v>
+        <v>0.2534513528432801</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6130718893687</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N9">
-        <v>14.6130718893687</v>
+        <v>119.714039</v>
       </c>
       <c r="O9">
-        <v>0.2623324564188848</v>
+        <v>0.6986024675597023</v>
       </c>
       <c r="P9">
-        <v>0.2623324564188848</v>
+        <v>0.6986024675597023</v>
       </c>
       <c r="Q9">
-        <v>35.89763127358889</v>
+        <v>159.5891626005935</v>
       </c>
       <c r="R9">
-        <v>35.89763127358889</v>
+        <v>1436.302463405342</v>
       </c>
       <c r="S9">
-        <v>0.04344892290594093</v>
+        <v>0.1770617405026603</v>
       </c>
       <c r="T9">
-        <v>0.04344892290594093</v>
+        <v>0.1770617405026603</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1030,60 +1030,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.45654243990308</v>
+        <v>3.999259333333333</v>
       </c>
       <c r="H10">
-        <v>2.45654243990308</v>
+        <v>11.997778</v>
       </c>
       <c r="I10">
-        <v>0.1656254185969385</v>
+        <v>0.2534513528432802</v>
       </c>
       <c r="J10">
-        <v>0.1656254185969385</v>
+        <v>0.2534513528432801</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.26391332226967</v>
+        <v>0.27049</v>
       </c>
       <c r="N10">
-        <v>1.26391332226967</v>
+        <v>0.8114699999999999</v>
       </c>
       <c r="O10">
-        <v>0.02268964999568479</v>
+        <v>0.004735409055496588</v>
       </c>
       <c r="P10">
-        <v>0.02268964999568479</v>
+        <v>0.004735409055496588</v>
       </c>
       <c r="Q10">
-        <v>3.104856716514343</v>
+        <v>1.081759657073333</v>
       </c>
       <c r="R10">
-        <v>3.104856716514343</v>
+        <v>9.73583691366</v>
       </c>
       <c r="S10">
-        <v>0.003757982778353318</v>
+        <v>0.00120019583138193</v>
       </c>
       <c r="T10">
-        <v>0.003757982778353318</v>
+        <v>0.001200195831381929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1092,60 +1092,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.50424176348442</v>
+        <v>3.999259333333333</v>
       </c>
       <c r="H11">
-        <v>7.50424176348442</v>
+        <v>11.997778</v>
       </c>
       <c r="I11">
-        <v>0.5059522535172534</v>
+        <v>0.2534513528432802</v>
       </c>
       <c r="J11">
-        <v>0.5059522535172534</v>
+        <v>0.2534513528432801</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>39.827414041327</v>
+        <v>0.4939066666666667</v>
       </c>
       <c r="N11">
-        <v>39.827414041327</v>
+        <v>1.48172</v>
       </c>
       <c r="O11">
-        <v>0.7149778935854304</v>
+        <v>0.00864671559726226</v>
       </c>
       <c r="P11">
-        <v>0.7149778935854304</v>
+        <v>0.00864671559726226</v>
       </c>
       <c r="Q11">
-        <v>298.8745437805119</v>
+        <v>1.975260846462222</v>
       </c>
       <c r="R11">
-        <v>298.8745437805119</v>
+        <v>17.77734761816</v>
       </c>
       <c r="S11">
-        <v>0.3617446764745675</v>
+        <v>0.002191521765777211</v>
       </c>
       <c r="T11">
-        <v>0.3617446764745675</v>
+        <v>0.002191521765777211</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.50424176348442</v>
+        <v>3.999259333333333</v>
       </c>
       <c r="H12">
-        <v>7.50424176348442</v>
+        <v>11.997778</v>
       </c>
       <c r="I12">
-        <v>0.5059522535172534</v>
+        <v>0.2534513528432802</v>
       </c>
       <c r="J12">
-        <v>0.5059522535172534</v>
+        <v>0.2534513528432801</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.6130718893687</v>
+        <v>14.88291266666667</v>
       </c>
       <c r="N12">
-        <v>14.6130718893687</v>
+        <v>44.648738</v>
       </c>
       <c r="O12">
-        <v>0.2623324564188848</v>
+        <v>0.2605518851487974</v>
       </c>
       <c r="P12">
-        <v>0.2623324564188848</v>
+        <v>0.2605518851487974</v>
       </c>
       <c r="Q12">
-        <v>109.6600243650008</v>
+        <v>59.52062738935156</v>
       </c>
       <c r="R12">
-        <v>109.6600243650008</v>
+        <v>535.6856465041641</v>
       </c>
       <c r="S12">
-        <v>0.1327276974958514</v>
+        <v>0.06603722777682966</v>
       </c>
       <c r="T12">
-        <v>0.1327276974958514</v>
+        <v>0.06603722777682965</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,52 +1219,796 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.50424176348442</v>
+        <v>3.999259333333333</v>
       </c>
       <c r="H13">
-        <v>7.50424176348442</v>
+        <v>11.997778</v>
       </c>
       <c r="I13">
-        <v>0.5059522535172534</v>
+        <v>0.2534513528432802</v>
       </c>
       <c r="J13">
-        <v>0.5059522535172534</v>
+        <v>0.2534513528432801</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.26391332226967</v>
+        <v>1.402426666666667</v>
       </c>
       <c r="N13">
-        <v>1.26391332226967</v>
+        <v>4.20728</v>
       </c>
       <c r="O13">
-        <v>0.02268964999568479</v>
+        <v>0.02455197581057795</v>
       </c>
       <c r="P13">
-        <v>0.02268964999568479</v>
+        <v>0.02455197581057795</v>
       </c>
       <c r="Q13">
-        <v>9.484711138400399</v>
+        <v>5.608667935982222</v>
       </c>
       <c r="R13">
-        <v>9.484711138400399</v>
+        <v>50.47801142384</v>
       </c>
       <c r="S13">
-        <v>0.01147987954683446</v>
+        <v>0.006222731484166471</v>
       </c>
       <c r="T13">
-        <v>0.01147987954683446</v>
+        <v>0.00622273148416647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.695660333333334</v>
+      </c>
+      <c r="H14">
+        <v>8.086981000000002</v>
+      </c>
+      <c r="I14">
+        <v>0.1708363227647572</v>
+      </c>
+      <c r="J14">
+        <v>0.1708363227647572</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1663096666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.498929</v>
+      </c>
+      <c r="O14">
+        <v>0.002911546828163527</v>
+      </c>
+      <c r="P14">
+        <v>0.002911546828163527</v>
+      </c>
+      <c r="Q14">
+        <v>0.4483143714832223</v>
+      </c>
+      <c r="R14">
+        <v>4.034829343349001</v>
+      </c>
+      <c r="S14">
+        <v>0.0004973979536808494</v>
+      </c>
+      <c r="T14">
+        <v>0.0004973979536808494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.695660333333334</v>
+      </c>
+      <c r="H15">
+        <v>8.086981000000002</v>
+      </c>
+      <c r="I15">
+        <v>0.1708363227647572</v>
+      </c>
+      <c r="J15">
+        <v>0.1708363227647572</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>39.90467966666666</v>
+      </c>
+      <c r="N15">
+        <v>119.714039</v>
+      </c>
+      <c r="O15">
+        <v>0.6986024675597023</v>
+      </c>
+      <c r="P15">
+        <v>0.6986024675597023</v>
+      </c>
+      <c r="Q15">
+        <v>107.5694620918066</v>
+      </c>
+      <c r="R15">
+        <v>968.1251588262591</v>
+      </c>
+      <c r="S15">
+        <v>0.1193466766322851</v>
+      </c>
+      <c r="T15">
+        <v>0.1193466766322851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.695660333333334</v>
+      </c>
+      <c r="H16">
+        <v>8.086981000000002</v>
+      </c>
+      <c r="I16">
+        <v>0.1708363227647572</v>
+      </c>
+      <c r="J16">
+        <v>0.1708363227647572</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.27049</v>
+      </c>
+      <c r="N16">
+        <v>0.8114699999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.004735409055496588</v>
+      </c>
+      <c r="P16">
+        <v>0.004735409055496588</v>
+      </c>
+      <c r="Q16">
+        <v>0.7291491635633334</v>
+      </c>
+      <c r="R16">
+        <v>6.56234247207</v>
+      </c>
+      <c r="S16">
+        <v>0.0008089798698279691</v>
+      </c>
+      <c r="T16">
+        <v>0.000808979869827969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.695660333333334</v>
+      </c>
+      <c r="H17">
+        <v>8.086981000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.1708363227647572</v>
+      </c>
+      <c r="J17">
+        <v>0.1708363227647572</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.4939066666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.48172</v>
+      </c>
+      <c r="O17">
+        <v>0.00864671559726226</v>
+      </c>
+      <c r="P17">
+        <v>0.00864671559726226</v>
+      </c>
+      <c r="Q17">
+        <v>1.331404609702223</v>
+      </c>
+      <c r="R17">
+        <v>11.98264148732</v>
+      </c>
+      <c r="S17">
+        <v>0.001477173096628956</v>
+      </c>
+      <c r="T17">
+        <v>0.001477173096628956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.695660333333334</v>
+      </c>
+      <c r="H18">
+        <v>8.086981000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.1708363227647572</v>
+      </c>
+      <c r="J18">
+        <v>0.1708363227647572</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.88291266666667</v>
+      </c>
+      <c r="N18">
+        <v>44.648738</v>
+      </c>
+      <c r="O18">
+        <v>0.2605518851487974</v>
+      </c>
+      <c r="P18">
+        <v>0.2605518851487974</v>
+      </c>
+      <c r="Q18">
+        <v>40.11927731999757</v>
+      </c>
+      <c r="R18">
+        <v>361.0734958799781</v>
+      </c>
+      <c r="S18">
+        <v>0.04451172594824591</v>
+      </c>
+      <c r="T18">
+        <v>0.0445117259482459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.695660333333334</v>
+      </c>
+      <c r="H19">
+        <v>8.086981000000002</v>
+      </c>
+      <c r="I19">
+        <v>0.1708363227647572</v>
+      </c>
+      <c r="J19">
+        <v>0.1708363227647572</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.402426666666667</v>
+      </c>
+      <c r="N19">
+        <v>4.20728</v>
+      </c>
+      <c r="O19">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="P19">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="Q19">
+        <v>3.780465935742223</v>
+      </c>
+      <c r="R19">
+        <v>34.02419342168</v>
+      </c>
+      <c r="S19">
+        <v>0.004194369264088406</v>
+      </c>
+      <c r="T19">
+        <v>0.004194369264088405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7.648891333333332</v>
+      </c>
+      <c r="H20">
+        <v>22.946674</v>
+      </c>
+      <c r="I20">
+        <v>0.4847452227032141</v>
+      </c>
+      <c r="J20">
+        <v>0.484745222703214</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1663096666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.498929</v>
+      </c>
+      <c r="O20">
+        <v>0.002911546828163527</v>
+      </c>
+      <c r="P20">
+        <v>0.002911546828163527</v>
+      </c>
+      <c r="Q20">
+        <v>1.272084568016222</v>
+      </c>
+      <c r="R20">
+        <v>11.448761112146</v>
+      </c>
+      <c r="S20">
+        <v>0.001411358415628965</v>
+      </c>
+      <c r="T20">
+        <v>0.001411358415628965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7.648891333333332</v>
+      </c>
+      <c r="H21">
+        <v>22.946674</v>
+      </c>
+      <c r="I21">
+        <v>0.4847452227032141</v>
+      </c>
+      <c r="J21">
+        <v>0.484745222703214</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>39.90467966666666</v>
+      </c>
+      <c r="N21">
+        <v>119.714039</v>
+      </c>
+      <c r="O21">
+        <v>0.6986024675597023</v>
+      </c>
+      <c r="P21">
+        <v>0.6986024675597023</v>
+      </c>
+      <c r="Q21">
+        <v>305.2265584618095</v>
+      </c>
+      <c r="R21">
+        <v>2747.039026156285</v>
+      </c>
+      <c r="S21">
+        <v>0.3386442087182428</v>
+      </c>
+      <c r="T21">
+        <v>0.3386442087182427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.648891333333332</v>
+      </c>
+      <c r="H22">
+        <v>22.946674</v>
+      </c>
+      <c r="I22">
+        <v>0.4847452227032141</v>
+      </c>
+      <c r="J22">
+        <v>0.484745222703214</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.27049</v>
+      </c>
+      <c r="N22">
+        <v>0.8114699999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.004735409055496588</v>
+      </c>
+      <c r="P22">
+        <v>0.004735409055496588</v>
+      </c>
+      <c r="Q22">
+        <v>2.068948616753333</v>
+      </c>
+      <c r="R22">
+        <v>18.62053755078</v>
+      </c>
+      <c r="S22">
+        <v>0.00229546691719751</v>
+      </c>
+      <c r="T22">
+        <v>0.00229546691719751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.648891333333332</v>
+      </c>
+      <c r="H23">
+        <v>22.946674</v>
+      </c>
+      <c r="I23">
+        <v>0.4847452227032141</v>
+      </c>
+      <c r="J23">
+        <v>0.484745222703214</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.4939066666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.48172</v>
+      </c>
+      <c r="O23">
+        <v>0.00864671559726226</v>
+      </c>
+      <c r="P23">
+        <v>0.00864671559726226</v>
+      </c>
+      <c r="Q23">
+        <v>3.777838422142222</v>
+      </c>
+      <c r="R23">
+        <v>34.00054579928</v>
+      </c>
+      <c r="S23">
+        <v>0.004191454077846248</v>
+      </c>
+      <c r="T23">
+        <v>0.004191454077846248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.648891333333332</v>
+      </c>
+      <c r="H24">
+        <v>22.946674</v>
+      </c>
+      <c r="I24">
+        <v>0.4847452227032141</v>
+      </c>
+      <c r="J24">
+        <v>0.484745222703214</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.88291266666667</v>
+      </c>
+      <c r="N24">
+        <v>44.648738</v>
+      </c>
+      <c r="O24">
+        <v>0.2605518851487974</v>
+      </c>
+      <c r="P24">
+        <v>0.2605518851487974</v>
+      </c>
+      <c r="Q24">
+        <v>113.8377817108235</v>
+      </c>
+      <c r="R24">
+        <v>1024.540035397412</v>
+      </c>
+      <c r="S24">
+        <v>0.1263012815921961</v>
+      </c>
+      <c r="T24">
+        <v>0.126301281592196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.648891333333332</v>
+      </c>
+      <c r="H25">
+        <v>22.946674</v>
+      </c>
+      <c r="I25">
+        <v>0.4847452227032141</v>
+      </c>
+      <c r="J25">
+        <v>0.484745222703214</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.402426666666667</v>
+      </c>
+      <c r="N25">
+        <v>4.20728</v>
+      </c>
+      <c r="O25">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="P25">
+        <v>0.02455197581057795</v>
+      </c>
+      <c r="Q25">
+        <v>10.72700917630222</v>
+      </c>
+      <c r="R25">
+        <v>96.54308258671999</v>
+      </c>
+      <c r="S25">
+        <v>0.01190145298210253</v>
+      </c>
+      <c r="T25">
+        <v>0.01190145298210253</v>
       </c>
     </row>
   </sheetData>
